--- a/TextBasedGame/Platsnamn textspel.xlsx
+++ b/TextBasedGame/Platsnamn textspel.xlsx
@@ -400,7 +400,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1"/>
@@ -465,12 +465,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.43"/>
-    <col customWidth="1" min="2" max="2" width="71.29"/>
-    <col customWidth="1" min="3" max="3" width="22.0"/>
-    <col customWidth="1" min="4" max="4" width="26.14"/>
+    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="2" max="2" width="62.38"/>
+    <col customWidth="1" min="3" max="3" width="19.25"/>
+    <col customWidth="1" min="4" max="4" width="22.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -637,52 +637,8 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B1" s="5">
-        <v>111.0</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E1" s="5">
-        <v>11.0</v>
-      </c>
-      <c r="F1" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G1" s="5">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1.0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>